--- a/My/Contas_Gerais.xlsx
+++ b/My/Contas_Gerais.xlsx
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>250+50+120</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Cartão_Santander.:</t>
+  </si>
+  <si>
+    <t>Passagens:</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -376,7 +379,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -388,68 +391,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Ênfase3" xfId="2" builtinId="38"/>
@@ -735,7 +741,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,42 +760,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -871,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="12">
-        <v>1500</v>
+        <v>1350</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="16"/>
@@ -909,8 +915,12 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12">
+        <v>180</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
@@ -929,7 +939,7 @@
       <c r="A9" s="16"/>
       <c r="B9" s="14"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="18">
@@ -946,23 +956,23 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="18">
-        <f>SUM(B3:B7)</f>
-        <v>3450</v>
+        <f>SUM(B3:B8)</f>
+        <v>3480</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="19">
         <f>E9-B10</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="18">
@@ -970,7 +980,7 @@
         <v>3370</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="21" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="19">
